--- a/StructureDefinition-no-basis-HealthcareService.xlsx
+++ b/StructureDefinition-no-basis-HealthcareService.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/no-basis/StructureDefinition/no-basis-HealthcareService</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-HealthcareService</t>
   </si>
   <si>
     <t>Version</t>
@@ -485,7 +485,7 @@
     <t>HealthcareService.providedBy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|http://hl7.no/fhir/no-basis/StructureDefinition/no-basis-Organization)
+    <t xml:space="preserve">Reference(Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization)
 </t>
   </si>
   <si>
@@ -1071,7 +1071,7 @@
     <t>HealthcareService.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|http://hl7.no/fhir/no-basis/StructureDefinition/no-basis-Location)
+    <t xml:space="preserve">Reference(Location|http://hl7.no/fhir/StructureDefinition/no-basis-Location)
 </t>
   </si>
   <si>
@@ -1458,7 +1458,7 @@
     <t>HealthcareService.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint|http://hl7.no/fhir/no-basis/StructureDefinition/no-basis-Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|http://hl7.no/fhir/StructureDefinition/no-basis-Endpoint)
 </t>
   </si>
   <si>

--- a/StructureDefinition-no-basis-HealthcareService.xlsx
+++ b/StructureDefinition-no-basis-HealthcareService.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.17-alpha</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-no-basis-HealthcareService.xlsx
+++ b/StructureDefinition-no-basis-HealthcareService.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
